--- a/data/month_counts.xlsx
+++ b/data/month_counts.xlsx
@@ -941,13 +941,13 @@
         <v>9</v>
       </c>
       <c r="BH2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI2" t="n">
         <v>15</v>
       </c>
       <c r="BJ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK2" t="n">
         <v>14</v>
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1155,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ4" t="n">
         <v>19</v>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="BM4" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1526,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="BD5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BE5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF5" t="n">
         <v>4</v>
@@ -1553,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1951,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="BM7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2328,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="BF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG9" t="n">
         <v>12</v>
@@ -2349,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="BM9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2548,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -2747,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="BM11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3344,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="BM14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3543,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -4134,13 +4134,13 @@
         <v>1</v>
       </c>
       <c r="BK18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL18" t="n">
         <v>5</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -4339,7 +4339,7 @@
         <v>8</v>
       </c>
       <c r="BM19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -4538,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="BM20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -4680,7 +4680,7 @@
         <v>38</v>
       </c>
       <c r="AT21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>17</v>
@@ -4737,7 +4737,7 @@
         <v>15</v>
       </c>
       <c r="BM21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -4936,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="BM22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -5135,7 +5135,7 @@
         <v>34</v>
       </c>
       <c r="BM23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -5334,7 +5334,7 @@
         <v>8</v>
       </c>
       <c r="BM24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -5533,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="BM25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -5732,7 +5732,7 @@
         <v>9</v>
       </c>
       <c r="BM26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="AX27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
         <v>1</v>
@@ -5931,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="BM27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -6130,7 +6130,7 @@
         <v>6</v>
       </c>
       <c r="BM28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -6329,7 +6329,7 @@
         <v>9</v>
       </c>
       <c r="BM29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>4</v>
       </c>
       <c r="BM30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -6727,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="BM31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -6926,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="BM32" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -7125,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="BM33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -7267,7 +7267,7 @@
         <v>24</v>
       </c>
       <c r="AT34" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU34" t="n">
         <v>8</v>
@@ -7282,7 +7282,7 @@
         <v>7</v>
       </c>
       <c r="AY34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ34" t="n">
         <v>2</v>
@@ -7324,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="BM34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -7523,7 +7523,7 @@
         <v>5</v>
       </c>
       <c r="BM35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -7722,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="BM36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
       <c r="BM37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -8120,7 +8120,7 @@
         <v>6</v>
       </c>
       <c r="BM38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -8319,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="BM39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -8518,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="BM40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -8717,7 +8717,7 @@
         <v>5</v>
       </c>
       <c r="BM41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -8916,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="BM42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -9115,7 +9115,7 @@
         <v>7</v>
       </c>
       <c r="BM43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -9314,7 +9314,7 @@
         <v>8</v>
       </c>
       <c r="BM44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -9513,7 +9513,7 @@
         <v>7</v>
       </c>
       <c r="BM45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -9712,7 +9712,7 @@
         <v>11</v>
       </c>
       <c r="BM46" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -9911,7 +9911,7 @@
         <v>8</v>
       </c>
       <c r="BM47" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -10110,7 +10110,7 @@
         <v>4</v>
       </c>
       <c r="BM48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -10309,7 +10309,7 @@
         <v>16</v>
       </c>
       <c r="BM49" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/month_counts.xlsx
+++ b/data/month_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM49"/>
+  <dimension ref="A1:BN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,11 @@
           <t>Dec, 2021</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Jan, 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -958,6 +963,9 @@
       <c r="BM2" t="n">
         <v>7</v>
       </c>
+      <c r="BN2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1157,6 +1165,9 @@
       <c r="BM3" t="n">
         <v>8</v>
       </c>
+      <c r="BN3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1246,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD4" t="n">
         <v>20</v>
@@ -1303,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1354,7 +1365,10 @@
         <v>9</v>
       </c>
       <c r="BM4" t="n">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1555,6 +1569,9 @@
       <c r="BM5" t="n">
         <v>8</v>
       </c>
+      <c r="BN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1754,6 +1771,9 @@
       <c r="BM6" t="n">
         <v>5</v>
       </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1953,6 +1973,9 @@
       <c r="BM7" t="n">
         <v>11</v>
       </c>
+      <c r="BN7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2152,6 +2175,9 @@
       <c r="BM8" t="n">
         <v>2</v>
       </c>
+      <c r="BN8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2351,6 +2377,9 @@
       <c r="BM9" t="n">
         <v>6</v>
       </c>
+      <c r="BN9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2440,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="AC10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
         <v>26</v>
@@ -2549,6 +2578,9 @@
       </c>
       <c r="BM10" t="n">
         <v>21</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -2749,6 +2781,9 @@
       <c r="BM11" t="n">
         <v>15</v>
       </c>
+      <c r="BN11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2948,6 +2983,9 @@
       <c r="BM12" t="n">
         <v>2</v>
       </c>
+      <c r="BN12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3147,6 +3185,9 @@
       <c r="BM13" t="n">
         <v>2</v>
       </c>
+      <c r="BN13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3236,7 +3277,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -3345,6 +3386,9 @@
       </c>
       <c r="BM14" t="n">
         <v>2</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3435,7 +3479,7 @@
         <v>25</v>
       </c>
       <c r="AC15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="n">
         <v>19</v>
@@ -3544,6 +3588,9 @@
       </c>
       <c r="BM15" t="n">
         <v>2</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3744,6 +3791,9 @@
       <c r="BM16" t="n">
         <v>2</v>
       </c>
+      <c r="BN16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3943,6 +3993,9 @@
       <c r="BM17" t="n">
         <v>3</v>
       </c>
+      <c r="BN17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4142,6 +4195,9 @@
       <c r="BM18" t="n">
         <v>7</v>
       </c>
+      <c r="BN18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4341,6 +4397,9 @@
       <c r="BM19" t="n">
         <v>7</v>
       </c>
+      <c r="BN19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4430,7 +4489,7 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
         <v>15</v>
@@ -4539,6 +4598,9 @@
       </c>
       <c r="BM20" t="n">
         <v>5</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -4739,6 +4801,9 @@
       <c r="BM21" t="n">
         <v>5</v>
       </c>
+      <c r="BN21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4828,7 +4893,7 @@
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
         <v>17</v>
@@ -4936,6 +5001,9 @@
         <v>13</v>
       </c>
       <c r="BM22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BN22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5137,6 +5205,9 @@
       <c r="BM23" t="n">
         <v>20</v>
       </c>
+      <c r="BN23" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -5226,7 +5297,7 @@
         <v>7</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>13</v>
@@ -5335,6 +5406,9 @@
       </c>
       <c r="BM24" t="n">
         <v>12</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -5535,6 +5609,9 @@
       <c r="BM25" t="n">
         <v>3</v>
       </c>
+      <c r="BN25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -5734,6 +5811,9 @@
       <c r="BM26" t="n">
         <v>7</v>
       </c>
+      <c r="BN26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5933,6 +6013,9 @@
       <c r="BM27" t="n">
         <v>5</v>
       </c>
+      <c r="BN27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -6132,6 +6215,9 @@
       <c r="BM28" t="n">
         <v>6</v>
       </c>
+      <c r="BN28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -6331,6 +6417,9 @@
       <c r="BM29" t="n">
         <v>5</v>
       </c>
+      <c r="BN29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -6530,6 +6619,9 @@
       <c r="BM30" t="n">
         <v>21</v>
       </c>
+      <c r="BN30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -6729,6 +6821,9 @@
       <c r="BM31" t="n">
         <v>7</v>
       </c>
+      <c r="BN31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6928,6 +7023,9 @@
       <c r="BM32" t="n">
         <v>25</v>
       </c>
+      <c r="BN32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -7127,6 +7225,9 @@
       <c r="BM33" t="n">
         <v>7</v>
       </c>
+      <c r="BN33" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -7326,6 +7427,9 @@
       <c r="BM34" t="n">
         <v>6</v>
       </c>
+      <c r="BN34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -7525,6 +7629,9 @@
       <c r="BM35" t="n">
         <v>9</v>
       </c>
+      <c r="BN35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -7724,6 +7831,9 @@
       <c r="BM36" t="n">
         <v>2</v>
       </c>
+      <c r="BN36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -7813,7 +7923,7 @@
         <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD37" t="n">
         <v>25</v>
@@ -7922,6 +8032,9 @@
       </c>
       <c r="BM37" t="n">
         <v>17</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -8122,6 +8235,9 @@
       <c r="BM38" t="n">
         <v>3</v>
       </c>
+      <c r="BN38" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -8321,6 +8437,9 @@
       <c r="BM39" t="n">
         <v>4</v>
       </c>
+      <c r="BN39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -8520,6 +8639,9 @@
       <c r="BM40" t="n">
         <v>9</v>
       </c>
+      <c r="BN40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -8719,6 +8841,9 @@
       <c r="BM41" t="n">
         <v>1</v>
       </c>
+      <c r="BN41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -8918,6 +9043,9 @@
       <c r="BM42" t="n">
         <v>3</v>
       </c>
+      <c r="BN42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -9117,6 +9245,9 @@
       <c r="BM43" t="n">
         <v>4</v>
       </c>
+      <c r="BN43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -9316,6 +9447,9 @@
       <c r="BM44" t="n">
         <v>7</v>
       </c>
+      <c r="BN44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -9405,7 +9539,7 @@
         <v>18</v>
       </c>
       <c r="AC45" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD45" t="n">
         <v>17</v>
@@ -9514,6 +9648,9 @@
       </c>
       <c r="BM45" t="n">
         <v>9</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -9714,6 +9851,9 @@
       <c r="BM46" t="n">
         <v>18</v>
       </c>
+      <c r="BN46" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -9913,6 +10053,9 @@
       <c r="BM47" t="n">
         <v>21</v>
       </c>
+      <c r="BN47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -10112,6 +10255,9 @@
       <c r="BM48" t="n">
         <v>6</v>
       </c>
+      <c r="BN48" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -10310,6 +10456,9 @@
       </c>
       <c r="BM49" t="n">
         <v>10</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/month_counts.xlsx
+++ b/data/month_counts.xlsx
@@ -784,187 +784,187 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="n">
+      <c r="U2" t="n">
+        <v>15</v>
+      </c>
+      <c r="V2" t="n">
+        <v>11</v>
+      </c>
+      <c r="W2" t="n">
+        <v>17</v>
+      </c>
+      <c r="X2" t="n">
         <v>12</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="n">
-        <v>22</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>19</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="AA2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
         <v>14</v>
       </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>11</v>
-      </c>
-      <c r="R2" t="n">
-        <v>23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9</v>
-      </c>
-      <c r="T2" t="n">
-        <v>19</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM2" t="n">
         <v>18</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AN2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV2" t="n">
         <v>14</v>
       </c>
-      <c r="W2" t="n">
-        <v>20</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AW2" t="n">
         <v>13</v>
       </c>
-      <c r="Y2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AX2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY2" t="n">
         <v>16</v>
       </c>
-      <c r="AA2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AZ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN2" t="n">
         <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>53</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>21</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>14</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>11</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>7</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -980,178 +980,178 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="n">
         <v>12</v>
       </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17</v>
-      </c>
-      <c r="L3" t="n">
-        <v>16</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="BD3" t="n">
         <v>13</v>
       </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>16</v>
-      </c>
       <c r="BE3" t="n">
         <v>6</v>
       </c>
       <c r="BF3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH3" t="n">
         <v>9</v>
       </c>
       <c r="BI3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BJ3" t="n">
         <v>7</v>
@@ -1160,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="BL3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM3" t="n">
         <v>8</v>
@@ -1182,139 +1182,139 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" t="n">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>17</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>24</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>39</v>
+      </c>
+      <c r="AT4" t="n">
         <v>21</v>
       </c>
-      <c r="L4" t="n">
-        <v>18</v>
-      </c>
-      <c r="M4" t="n">
-        <v>27</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>16</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AU4" t="n">
         <v>13</v>
       </c>
-      <c r="AF4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>18</v>
-      </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1326,25 +1326,25 @@
         <v>13</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>12</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD4" t="n">
         <v>15</v>
       </c>
       <c r="BE4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BG4" t="n">
         <v>8</v>
@@ -1353,22 +1353,22 @@
         <v>5</v>
       </c>
       <c r="BI4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BJ4" t="n">
         <v>12</v>
       </c>
       <c r="BK4" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BL4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BN4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1417,13 +1417,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>8</v>
@@ -1432,94 +1432,94 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>3</v>
@@ -1537,25 +1537,25 @@
         <v>8</v>
       </c>
       <c r="BC5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF5" t="n">
         <v>4</v>
       </c>
       <c r="BG5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BH5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BI5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ5" t="n">
         <v>4</v>
@@ -1564,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="BL5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BM5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN5" t="n">
         <v>1</v>
@@ -1727,13 +1727,13 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="BD6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BE6" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="BG6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH6" t="n">
         <v>4</v>
@@ -1763,13 +1763,13 @@
         <v>2</v>
       </c>
       <c r="BK6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -1962,19 +1962,19 @@
         <v>1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK7" t="n">
         <v>10</v>
       </c>
       <c r="BL7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BM7" t="n">
         <v>11</v>
       </c>
       <c r="BN7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2044,34 +2044,34 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W8" t="n">
         <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
         <v>4</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>5</v>
@@ -2083,10 +2083,10 @@
         <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -2095,25 +2095,25 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
       </c>
       <c r="AP8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR8" t="n">
         <v>12</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>17</v>
-      </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2128,25 +2128,25 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
         <v>1</v>
       </c>
       <c r="BD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE8" t="n">
         <v>5</v>
@@ -2158,16 +2158,16 @@
         <v>4</v>
       </c>
       <c r="BH8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BL8" t="n">
         <v>2</v>
@@ -2243,34 +2243,34 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2279,58 +2279,58 @@
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AR9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AT9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
         <v>11</v>
       </c>
       <c r="AW9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2339,13 +2339,13 @@
         <v>5</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD9" t="n">
         <v>1</v>
@@ -2354,16 +2354,16 @@
         <v>3</v>
       </c>
       <c r="BF9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BH9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ9" t="n">
         <v>3</v>
@@ -2372,7 +2372,7 @@
         <v>6</v>
       </c>
       <c r="BL9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM9" t="n">
         <v>6</v>
@@ -2394,151 +2394,151 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
       <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU10" t="n">
         <v>12</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AV10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX10" t="n">
         <v>20</v>
       </c>
-      <c r="M10" t="n">
-        <v>20</v>
-      </c>
-      <c r="N10" t="n">
-        <v>18</v>
-      </c>
-      <c r="O10" t="n">
-        <v>23</v>
-      </c>
-      <c r="P10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>13</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="AY10" t="n">
         <v>12</v>
       </c>
-      <c r="U10" t="n">
-        <v>11</v>
-      </c>
-      <c r="V10" t="n">
-        <v>12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>16</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
@@ -2547,40 +2547,40 @@
         <v>12</v>
       </c>
       <c r="BC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="BE10" t="n">
         <v>14</v>
       </c>
-      <c r="BD10" t="n">
-        <v>17</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>16</v>
-      </c>
       <c r="BF10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="n">
         <v>7</v>
       </c>
       <c r="BH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BM10" t="n">
         <v>19</v>
       </c>
-      <c r="BI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>12</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>9</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>21</v>
-      </c>
       <c r="BN10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -2773,16 +2773,16 @@
         <v>3</v>
       </c>
       <c r="BK11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BL11" t="n">
         <v>7</v>
       </c>
       <c r="BM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BN11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2921,61 +2921,61 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW12" t="n">
         <v>6</v>
       </c>
       <c r="AX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF12" t="n">
         <v>2</v>
       </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>19</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>5</v>
-      </c>
       <c r="BG12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH12" t="n">
         <v>10</v>
       </c>
       <c r="BI12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ12" t="n">
         <v>5</v>
       </c>
       <c r="BK12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BL12" t="n">
         <v>2</v>
@@ -3081,97 +3081,97 @@
         <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
       </c>
       <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
         <v>17</v>
       </c>
-      <c r="AI13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ13" t="n">
         <v>5</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BE13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ13" t="n">
         <v>6</v>
@@ -3180,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="BL13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM13" t="n">
         <v>2</v>
@@ -3256,28 +3256,28 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -3286,13 +3286,13 @@
         <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -3301,46 +3301,46 @@
         <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
         <v>5</v>
       </c>
       <c r="AT14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
         <v>4</v>
@@ -3352,28 +3352,28 @@
         <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ14" t="n">
         <v>6</v>
@@ -3458,130 +3458,130 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>19</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS15" t="n">
         <v>23</v>
       </c>
-      <c r="W15" t="n">
-        <v>18</v>
-      </c>
-      <c r="X15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>36</v>
-      </c>
       <c r="AT15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA15" t="n">
         <v>3</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BE15" t="n">
         <v>2</v>
       </c>
       <c r="BF15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH15" t="n">
         <v>4</v>
       </c>
       <c r="BI15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BL15" t="n">
         <v>6</v>
@@ -3765,13 +3765,13 @@
         <v>4</v>
       </c>
       <c r="BE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH16" t="n">
         <v>2</v>
@@ -3949,13 +3949,13 @@
         <v>10</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3964,16 +3964,16 @@
         <v>6</v>
       </c>
       <c r="BD17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF17" t="n">
         <v>5</v>
       </c>
       <c r="BG17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH17" t="n">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>6</v>
       </c>
       <c r="BL17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM17" t="n">
         <v>3</v>
@@ -4148,25 +4148,25 @@
         <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB18" t="n">
         <v>2</v>
       </c>
       <c r="BC18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE18" t="n">
         <v>4</v>
@@ -4178,16 +4178,16 @@
         <v>7</v>
       </c>
       <c r="BH18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ18" t="n">
         <v>1</v>
       </c>
       <c r="BK18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BL18" t="n">
         <v>5</v>
@@ -4196,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="BN18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4218,136 +4218,136 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
         <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P19" t="n">
         <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R19" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T19" t="n">
         <v>15</v>
       </c>
       <c r="U19" t="n">
+        <v>12</v>
+      </c>
+      <c r="V19" t="n">
+        <v>14</v>
+      </c>
+      <c r="W19" t="n">
+        <v>20</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA19" t="n">
         <v>17</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
         <v>18</v>
       </c>
-      <c r="W19" t="n">
-        <v>24</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
         <v>22</v>
       </c>
-      <c r="Y19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AQ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR19" t="n">
         <v>22</v>
       </c>
-      <c r="AH19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AS19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV19" t="n">
         <v>14</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>62</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV19" t="n">
+      <c r="AW19" t="n">
         <v>15</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>16</v>
       </c>
       <c r="AX19" t="n">
         <v>15</v>
@@ -4356,49 +4356,49 @@
         <v>8</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
       </c>
       <c r="BD19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BF19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG19" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BH19" t="n">
         <v>8</v>
       </c>
       <c r="BI19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BJ19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK19" t="n">
         <v>12</v>
       </c>
-      <c r="BK19" t="n">
-        <v>13</v>
-      </c>
       <c r="BL19" t="n">
         <v>8</v>
       </c>
       <c r="BM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4420,163 +4420,163 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
+        <v>13</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>6</v>
+      </c>
+      <c r="V20" t="n">
+        <v>8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
         <v>14</v>
       </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>21</v>
-      </c>
-      <c r="L20" t="n">
-        <v>16</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="AE20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK20" t="n">
         <v>15</v>
       </c>
-      <c r="N20" t="n">
-        <v>12</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6</v>
-      </c>
-      <c r="V20" t="n">
-        <v>11</v>
-      </c>
-      <c r="W20" t="n">
-        <v>10</v>
-      </c>
-      <c r="X20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AL20" t="n">
         <v>13</v>
       </c>
-      <c r="AC20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AM20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS20" t="n">
         <v>15</v>
       </c>
-      <c r="AE20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>33</v>
-      </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY20" t="n">
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>4</v>
       </c>
       <c r="BD20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BE20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BF20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG20" t="n">
         <v>1</v>
@@ -4585,22 +4585,22 @@
         <v>5</v>
       </c>
       <c r="BI20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ20" t="n">
         <v>4</v>
       </c>
       <c r="BK20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BL20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BN20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -4697,61 +4697,61 @@
         <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR21" t="n">
         <v>14</v>
       </c>
-      <c r="AL21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>28</v>
-      </c>
       <c r="AS21" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>3</v>
@@ -4760,34 +4760,34 @@
         <v>9</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD21" t="n">
         <v>4</v>
       </c>
       <c r="BE21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BF21" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BG21" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BH21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BJ21" t="n">
         <v>4</v>
@@ -4796,7 +4796,7 @@
         <v>14</v>
       </c>
       <c r="BL21" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BM21" t="n">
         <v>5</v>
@@ -4875,10 +4875,10 @@
         <v>23</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>7</v>
@@ -4890,79 +4890,79 @@
         <v>12</v>
       </c>
       <c r="AB22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG22" t="n">
         <v>15</v>
       </c>
-      <c r="AC22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="n">
         <v>12</v>
       </c>
-      <c r="AG22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AN22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS22" t="n">
         <v>15</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN22" t="n">
+      <c r="AT22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV22" t="n">
         <v>12</v>
       </c>
-      <c r="AO22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA22" t="n">
         <v>4</v>
@@ -4971,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>5</v>
@@ -4980,31 +4980,31 @@
         <v>6</v>
       </c>
       <c r="BF22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL22" t="n">
         <v>12</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>13</v>
       </c>
       <c r="BM22" t="n">
         <v>13</v>
       </c>
       <c r="BN22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -5194,19 +5194,19 @@
         <v>0</v>
       </c>
       <c r="BJ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BL23" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BM23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BN23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -5252,19 +5252,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O24" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q24" t="n">
         <v>11</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -5273,65 +5273,65 @@
         <v>7</v>
       </c>
       <c r="U24" t="n">
+        <v>8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG24" t="n">
         <v>13</v>
       </c>
-      <c r="V24" t="n">
-        <v>11</v>
-      </c>
-      <c r="W24" t="n">
-        <v>9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AH24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
         <v>12</v>
       </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ24" t="n">
+      <c r="AL24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12</v>
       </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>15</v>
-      </c>
       <c r="AO24" t="n">
         <v>5</v>
       </c>
@@ -5339,31 +5339,31 @@
         <v>5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT24" t="n">
         <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -5372,19 +5372,19 @@
         <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BC24" t="n">
         <v>6</v>
       </c>
       <c r="BD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BE24" t="n">
         <v>8</v>
       </c>
       <c r="BF24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG24" t="n">
         <v>2</v>
@@ -5396,7 +5396,7 @@
         <v>2</v>
       </c>
       <c r="BJ24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BK24" t="n">
         <v>6</v>
@@ -5405,10 +5405,10 @@
         <v>8</v>
       </c>
       <c r="BM24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BN24" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -5529,40 +5529,40 @@
         <v>3</v>
       </c>
       <c r="AM25" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS25" t="n">
         <v>14</v>
       </c>
-      <c r="AS25" t="n">
-        <v>19</v>
-      </c>
       <c r="AT25" t="n">
         <v>10</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5574,13 +5574,13 @@
         <v>5</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BE25" t="n">
         <v>6</v>
@@ -5592,19 +5592,19 @@
         <v>4</v>
       </c>
       <c r="BH25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI25" t="n">
         <v>7</v>
       </c>
       <c r="BJ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM25" t="n">
         <v>3</v>
@@ -5731,46 +5731,46 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW26" t="n">
         <v>12</v>
       </c>
-      <c r="AW26" t="n">
-        <v>15</v>
-      </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA26" t="n">
         <v>3</v>
@@ -5779,13 +5779,13 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD26" t="n">
         <v>5</v>
       </c>
       <c r="BE26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BF26" t="n">
         <v>2</v>
@@ -5797,19 +5797,19 @@
         <v>3</v>
       </c>
       <c r="BI26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ26" t="n">
         <v>4</v>
       </c>
       <c r="BK26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BM26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN26" t="n">
         <v>3</v>
@@ -5852,13 +5852,13 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
         <v>2</v>
@@ -5912,19 +5912,19 @@
         <v>5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
         <v>9</v>
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AM27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27" t="n">
         <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ27" t="n">
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AT27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
         <v>2</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="AX27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY27" t="n">
         <v>1</v>
@@ -5984,16 +5984,16 @@
         <v>1</v>
       </c>
       <c r="BD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BF27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH27" t="n">
         <v>3</v>
@@ -6005,13 +6005,13 @@
         <v>4</v>
       </c>
       <c r="BK27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL27" t="n">
         <v>2</v>
       </c>
       <c r="BM27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN27" t="n">
         <v>4</v>
@@ -6060,40 +6060,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9</v>
+      </c>
+      <c r="W28" t="n">
         <v>14</v>
       </c>
-      <c r="S28" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" t="n">
-        <v>6</v>
-      </c>
-      <c r="U28" t="n">
-        <v>9</v>
-      </c>
-      <c r="V28" t="n">
-        <v>10</v>
-      </c>
-      <c r="W28" t="n">
-        <v>16</v>
-      </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
         <v>5</v>
@@ -6102,103 +6102,103 @@
         <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>14</v>
       </c>
       <c r="AM28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC28" t="n">
         <v>14</v>
       </c>
-      <c r="AV28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY28" t="n">
+      <c r="BD28" t="n">
         <v>14</v>
       </c>
-      <c r="AZ28" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>19</v>
-      </c>
       <c r="BE28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BF28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BG28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI28" t="n">
         <v>1</v>
@@ -6210,7 +6210,7 @@
         <v>5</v>
       </c>
       <c r="BL28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM28" t="n">
         <v>6</v>
@@ -6262,76 +6262,76 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P29" t="n">
         <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="n">
         <v>13</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
+        <v>6</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
         <v>14</v>
       </c>
-      <c r="U29" t="n">
-        <v>8</v>
-      </c>
-      <c r="V29" t="n">
-        <v>10</v>
-      </c>
-      <c r="W29" t="n">
-        <v>10</v>
-      </c>
-      <c r="X29" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15</v>
-      </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
@@ -6346,55 +6346,55 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT29" t="n">
         <v>12</v>
       </c>
-      <c r="AQ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>22</v>
-      </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW29" t="n">
         <v>3</v>
       </c>
       <c r="AX29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>1</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BC29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BE29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BF29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG29" t="n">
         <v>4</v>
@@ -6406,19 +6406,19 @@
         <v>5</v>
       </c>
       <c r="BJ29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK29" t="n">
         <v>5</v>
       </c>
       <c r="BL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM29" t="n">
         <v>5</v>
       </c>
       <c r="BN29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="BM30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BN30" t="n">
         <v>9</v>
@@ -6774,40 +6774,40 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD31" t="n">
         <v>14</v>
       </c>
-      <c r="AY31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>22</v>
-      </c>
       <c r="BE31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BF31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BH31" t="n">
         <v>1</v>
       </c>
       <c r="BI31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ31" t="n">
         <v>9</v>
@@ -6819,10 +6819,10 @@
         <v>4</v>
       </c>
       <c r="BM31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BN31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -6880,16 +6880,16 @@
         <v>7</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>12</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>3</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA32" t="n">
         <v>3</v>
@@ -6913,56 +6913,56 @@
         <v>6</v>
       </c>
       <c r="AC32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE32" t="n">
         <v>5</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AG32" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
         <v>12</v>
       </c>
-      <c r="AI32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>16</v>
-      </c>
       <c r="AT32" t="n">
         <v>5</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX32" t="n">
         <v>3</v>
@@ -7000,7 +7000,7 @@
         <v>8</v>
       </c>
       <c r="BF32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG32" t="n">
         <v>0</v>
@@ -7009,19 +7009,19 @@
         <v>6</v>
       </c>
       <c r="BI32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ32" t="n">
         <v>3</v>
       </c>
       <c r="BK32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BL32" t="n">
         <v>1</v>
       </c>
       <c r="BM32" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BN32" t="n">
         <v>9</v>
@@ -7145,43 +7145,43 @@
         <v>6</v>
       </c>
       <c r="AM33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP33" t="n">
         <v>7</v>
       </c>
       <c r="AQ33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AS33" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AT33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV33" t="n">
         <v>1</v>
       </c>
       <c r="AW33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ33" t="n">
         <v>3</v>
@@ -7196,19 +7196,19 @@
         <v>4</v>
       </c>
       <c r="BD33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG33" t="n">
         <v>1</v>
       </c>
       <c r="BH33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI33" t="n">
         <v>2</v>
@@ -7217,16 +7217,16 @@
         <v>7</v>
       </c>
       <c r="BK33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM33" t="n">
         <v>7</v>
       </c>
       <c r="BN33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -7323,40 +7323,40 @@
         <v>2</v>
       </c>
       <c r="AE34" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AF34" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI34" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AO34" t="n">
         <v>4</v>
       </c>
       <c r="AP34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ34" t="n">
         <v>4</v>
@@ -7365,38 +7365,38 @@
         <v>13</v>
       </c>
       <c r="AS34" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AT34" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AU34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV34" t="n">
         <v>4</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC34" t="n">
         <v>2</v>
       </c>
-      <c r="BA34" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>3</v>
-      </c>
       <c r="BD34" t="n">
         <v>5</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>10</v>
       </c>
       <c r="BF34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG34" t="n">
         <v>6</v>
@@ -7428,7 +7428,7 @@
         <v>6</v>
       </c>
       <c r="BN34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -7450,184 +7450,184 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K35" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M35" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N35" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O35" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R35" t="n">
         <v>12</v>
       </c>
       <c r="S35" t="n">
+        <v>17</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7</v>
+      </c>
+      <c r="U35" t="n">
+        <v>9</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>17</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB35" t="n">
         <v>18</v>
       </c>
-      <c r="T35" t="n">
-        <v>7</v>
-      </c>
-      <c r="U35" t="n">
-        <v>11</v>
-      </c>
-      <c r="V35" t="n">
-        <v>6</v>
-      </c>
-      <c r="W35" t="n">
-        <v>18</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="AC35" t="n">
         <v>14</v>
       </c>
-      <c r="Y35" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AD35" t="n">
         <v>14</v>
       </c>
-      <c r="AA35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>20</v>
-      </c>
       <c r="AE35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI35" t="n">
         <v>14</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>19</v>
       </c>
       <c r="AJ35" t="n">
         <v>14</v>
       </c>
       <c r="AK35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL35" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AM35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR35" t="n">
         <v>17</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AS35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY35" t="n">
         <v>12</v>
       </c>
-      <c r="AO35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>47</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD35" t="n">
         <v>12</v>
       </c>
-      <c r="BC35" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>14</v>
-      </c>
       <c r="BE35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BF35" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BG35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BH35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI35" t="n">
         <v>11</v>
       </c>
       <c r="BJ35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BL35" t="n">
         <v>5</v>
       </c>
       <c r="BM35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN35" t="n">
         <v>8</v>
@@ -7727,61 +7727,61 @@
         <v>3</v>
       </c>
       <c r="AE36" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AF36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR36" t="n">
         <v>12</v>
       </c>
-      <c r="AH36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>14</v>
-      </c>
       <c r="AS36" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AT36" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV36" t="n">
         <v>2</v>
       </c>
       <c r="AW36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX36" t="n">
         <v>6</v>
@@ -7790,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="AZ36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA36" t="n">
         <v>2</v>
@@ -7799,13 +7799,13 @@
         <v>1</v>
       </c>
       <c r="BC36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD36" t="n">
         <v>8</v>
       </c>
       <c r="BE36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF36" t="n">
         <v>2</v>
@@ -7820,13 +7820,13 @@
         <v>4</v>
       </c>
       <c r="BJ36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK36" t="n">
         <v>4</v>
       </c>
       <c r="BL36" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BM36" t="n">
         <v>2</v>
@@ -7848,193 +7848,193 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>23</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15</v>
+      </c>
+      <c r="L37" t="n">
+        <v>20</v>
+      </c>
+      <c r="M37" t="n">
+        <v>14</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11</v>
+      </c>
+      <c r="O37" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>7</v>
+      </c>
+      <c r="R37" t="n">
+        <v>16</v>
+      </c>
+      <c r="S37" t="n">
+        <v>9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>20</v>
+      </c>
+      <c r="V37" t="n">
+        <v>9</v>
+      </c>
+      <c r="W37" t="n">
+        <v>22</v>
+      </c>
+      <c r="X37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN37" t="n">
         <v>17</v>
       </c>
-      <c r="F37" t="n">
+      <c r="AO37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>59</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV37" t="n">
         <v>16</v>
       </c>
-      <c r="G37" t="n">
-        <v>10</v>
-      </c>
-      <c r="H37" t="n">
-        <v>25</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="AW37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>16</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK37" t="n">
         <v>17</v>
       </c>
-      <c r="J37" t="n">
-        <v>13</v>
-      </c>
-      <c r="K37" t="n">
-        <v>18</v>
-      </c>
-      <c r="L37" t="n">
-        <v>23</v>
-      </c>
-      <c r="M37" t="n">
-        <v>16</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13</v>
-      </c>
-      <c r="O37" t="n">
-        <v>13</v>
-      </c>
-      <c r="P37" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>8</v>
-      </c>
-      <c r="R37" t="n">
-        <v>19</v>
-      </c>
-      <c r="S37" t="n">
-        <v>11</v>
-      </c>
-      <c r="T37" t="n">
-        <v>21</v>
-      </c>
-      <c r="U37" t="n">
-        <v>23</v>
-      </c>
-      <c r="V37" t="n">
-        <v>9</v>
-      </c>
-      <c r="W37" t="n">
-        <v>23</v>
-      </c>
-      <c r="X37" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="BL37" t="n">
         <v>12</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>33</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>69</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>24</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>25</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>19</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>18</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>13</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>16</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>24</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>14</v>
       </c>
       <c r="BM37" t="n">
         <v>17</v>
       </c>
       <c r="BN37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -8080,61 +8080,61 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P38" t="n">
         <v>10</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB38" t="n">
         <v>6</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE38" t="n">
         <v>12</v>
       </c>
-      <c r="AE38" t="n">
-        <v>16</v>
-      </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG38" t="n">
         <v>5</v>
@@ -8146,55 +8146,55 @@
         <v>8</v>
       </c>
       <c r="AJ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN38" t="n">
         <v>13</v>
       </c>
-      <c r="AK38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>16</v>
-      </c>
       <c r="AO38" t="n">
         <v>8</v>
       </c>
       <c r="AP38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS38" t="n">
         <v>14</v>
       </c>
-      <c r="AQ38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>24</v>
-      </c>
       <c r="AT38" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AU38" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AV38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW38" t="n">
         <v>3</v>
       </c>
       <c r="AX38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA38" t="n">
         <v>3</v>
@@ -8203,10 +8203,10 @@
         <v>3</v>
       </c>
       <c r="BC38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BE38" t="n">
         <v>6</v>
@@ -8215,10 +8215,10 @@
         <v>3</v>
       </c>
       <c r="BG38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI38" t="n">
         <v>2</v>
@@ -8236,7 +8236,7 @@
         <v>3</v>
       </c>
       <c r="BN38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -8315,16 +8315,16 @@
         <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC39" t="n">
         <v>5</v>
@@ -8333,58 +8333,58 @@
         <v>4</v>
       </c>
       <c r="AE39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS39" t="n">
         <v>13</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>16</v>
       </c>
       <c r="AT39" t="n">
         <v>12</v>
       </c>
       <c r="AU39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW39" t="n">
         <v>4</v>
@@ -8396,22 +8396,22 @@
         <v>14</v>
       </c>
       <c r="AZ39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA39" t="n">
         <v>1</v>
       </c>
       <c r="BB39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BF39" t="n">
         <v>4</v>
@@ -8420,19 +8420,19 @@
         <v>3</v>
       </c>
       <c r="BH39" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BI39" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ39" t="n">
         <v>1</v>
       </c>
       <c r="BK39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM39" t="n">
         <v>4</v>
@@ -8595,19 +8595,19 @@
         <v>0</v>
       </c>
       <c r="AY40" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA40" t="n">
         <v>4</v>
       </c>
       <c r="BB40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD40" t="n">
         <v>9</v>
@@ -8616,7 +8616,7 @@
         <v>8</v>
       </c>
       <c r="BF40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BG40" t="n">
         <v>3</v>
@@ -8637,10 +8637,10 @@
         <v>3</v>
       </c>
       <c r="BM40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -8800,25 +8800,25 @@
         <v>7</v>
       </c>
       <c r="AZ41" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB41" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD41" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BE41" t="n">
         <v>7</v>
       </c>
       <c r="BF41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG41" t="n">
         <v>6</v>
@@ -8836,13 +8836,13 @@
         <v>6</v>
       </c>
       <c r="BL41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM41" t="n">
         <v>1</v>
       </c>
       <c r="BN41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -8963,31 +8963,31 @@
         <v>5</v>
       </c>
       <c r="AM42" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AN42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO42" t="n">
         <v>16</v>
       </c>
-      <c r="AO42" t="n">
+      <c r="AP42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR42" t="n">
         <v>24</v>
       </c>
-      <c r="AP42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>35</v>
-      </c>
       <c r="AS42" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AT42" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AU42" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
         <v>7</v>
@@ -9005,34 +9005,34 @@
         <v>7</v>
       </c>
       <c r="BA42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC42" t="n">
         <v>12</v>
       </c>
-      <c r="BC42" t="n">
-        <v>16</v>
-      </c>
       <c r="BD42" t="n">
         <v>8</v>
       </c>
       <c r="BE42" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BF42" t="n">
         <v>8</v>
       </c>
       <c r="BG42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI42" t="n">
         <v>4</v>
       </c>
       <c r="BJ42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK42" t="n">
         <v>6</v>
@@ -9165,28 +9165,28 @@
         <v>2</v>
       </c>
       <c r="AM43" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR43" t="n">
         <v>22</v>
       </c>
-      <c r="AQ43" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>25</v>
-      </c>
       <c r="AS43" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AT43" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU43" t="n">
         <v>13</v>
@@ -9198,37 +9198,37 @@
         <v>4</v>
       </c>
       <c r="AX43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB43" t="n">
         <v>9</v>
       </c>
       <c r="BC43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD43" t="n">
         <v>8</v>
       </c>
       <c r="BE43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG43" t="n">
         <v>9</v>
       </c>
       <c r="BH43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI43" t="n">
         <v>5</v>
@@ -9240,13 +9240,13 @@
         <v>3</v>
       </c>
       <c r="BL43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BM43" t="n">
         <v>4</v>
       </c>
       <c r="BN43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -9409,46 +9409,46 @@
         <v>3</v>
       </c>
       <c r="BA44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB44" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD44" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BE44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG44" t="n">
         <v>5</v>
       </c>
       <c r="BH44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BI44" t="n">
         <v>9</v>
       </c>
       <c r="BJ44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BL44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM44" t="n">
         <v>7</v>
       </c>
       <c r="BN44" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -9518,97 +9518,97 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W45" t="n">
         <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y45" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA45" t="n">
         <v>14</v>
       </c>
-      <c r="Z45" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>16</v>
-      </c>
       <c r="AB45" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
         <v>12</v>
       </c>
       <c r="AD45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
         <v>10</v>
       </c>
       <c r="AF45" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AG45" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AH45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR45" t="n">
         <v>14</v>
       </c>
-      <c r="AK45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>16</v>
-      </c>
       <c r="AS45" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AT45" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AU45" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AV45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY45" t="n">
         <v>10</v>
       </c>
       <c r="AZ45" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA45" t="n">
         <v>3</v>
@@ -9629,22 +9629,22 @@
         <v>9</v>
       </c>
       <c r="BG45" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BH45" t="n">
         <v>9</v>
       </c>
       <c r="BI45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BJ45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK45" t="n">
         <v>4</v>
       </c>
       <c r="BL45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BM45" t="n">
         <v>9</v>
@@ -9663,181 +9663,181 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" t="n">
         <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
         <v>10</v>
       </c>
       <c r="K46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
         <v>7</v>
       </c>
       <c r="T46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U46" t="n">
+        <v>12</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8</v>
+      </c>
+      <c r="W46" t="n">
+        <v>9</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG46" t="n">
         <v>14</v>
       </c>
-      <c r="V46" t="n">
-        <v>9</v>
-      </c>
-      <c r="W46" t="n">
+      <c r="AH46" t="n">
         <v>13</v>
       </c>
-      <c r="X46" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>15</v>
-      </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AK46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL46" t="n">
         <v>15</v>
       </c>
       <c r="AM46" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY46" t="n">
         <v>12</v>
       </c>
-      <c r="AO46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>50</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ46" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB46" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC46" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BD46" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BE46" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BG46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ46" t="n">
         <v>5</v>
@@ -9849,7 +9849,7 @@
         <v>11</v>
       </c>
       <c r="BM46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BN46" t="n">
         <v>13</v>
@@ -9898,145 +9898,145 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="O47" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P47" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>8</v>
+      </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>9</v>
+      </c>
+      <c r="U47" t="n">
+        <v>7</v>
+      </c>
+      <c r="V47" t="n">
+        <v>6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>10</v>
+      </c>
+      <c r="X47" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD47" t="n">
         <v>12</v>
       </c>
-      <c r="Q47" t="n">
-        <v>10</v>
-      </c>
-      <c r="R47" t="n">
-        <v>10</v>
-      </c>
-      <c r="S47" t="n">
-        <v>8</v>
-      </c>
-      <c r="T47" t="n">
-        <v>11</v>
-      </c>
-      <c r="U47" t="n">
-        <v>7</v>
-      </c>
-      <c r="V47" t="n">
-        <v>7</v>
-      </c>
-      <c r="W47" t="n">
-        <v>17</v>
-      </c>
-      <c r="X47" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD47" t="n">
+      <c r="AE47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG47" t="n">
         <v>14</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AH47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM47" t="n">
         <v>12</v>
       </c>
-      <c r="AF47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG47" t="n">
+      <c r="AN47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB47" t="n">
         <v>18</v>
       </c>
-      <c r="AH47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN47" t="n">
+      <c r="BC47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF47" t="n">
         <v>13</v>
       </c>
-      <c r="AO47" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>40</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>24</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>14</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>16</v>
-      </c>
       <c r="BG47" t="n">
         <v>10</v>
       </c>
       <c r="BH47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI47" t="n">
         <v>10</v>
@@ -10051,7 +10051,7 @@
         <v>8</v>
       </c>
       <c r="BM47" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BN47" t="n">
         <v>9</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="AW48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX48" t="n">
         <v>11</v>
       </c>
       <c r="AY48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ48" t="n">
         <v>5</v>
@@ -10220,19 +10220,19 @@
         <v>5</v>
       </c>
       <c r="BB48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD48" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BE48" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BF48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG48" t="n">
         <v>4</v>
@@ -10244,7 +10244,7 @@
         <v>3</v>
       </c>
       <c r="BJ48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK48" t="n">
         <v>4</v>
@@ -10253,10 +10253,10 @@
         <v>4</v>
       </c>
       <c r="BM48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -10278,178 +10278,178 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
+        <v>22</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
+      <c r="I49" t="n">
         <v>23</v>
       </c>
-      <c r="G49" t="n">
-        <v>22</v>
-      </c>
-      <c r="H49" t="n">
-        <v>25</v>
-      </c>
-      <c r="I49" t="n">
-        <v>31</v>
-      </c>
       <c r="J49" t="n">
+        <v>15</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12</v>
+      </c>
+      <c r="L49" t="n">
+        <v>34</v>
+      </c>
+      <c r="M49" t="n">
+        <v>16</v>
+      </c>
+      <c r="N49" t="n">
         <v>19</v>
       </c>
-      <c r="K49" t="n">
-        <v>15</v>
-      </c>
-      <c r="L49" t="n">
-        <v>40</v>
-      </c>
-      <c r="M49" t="n">
-        <v>17</v>
-      </c>
-      <c r="N49" t="n">
-        <v>27</v>
-      </c>
       <c r="O49" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>13</v>
+      </c>
+      <c r="R49" t="n">
         <v>14</v>
       </c>
-      <c r="Q49" t="n">
-        <v>16</v>
-      </c>
-      <c r="R49" t="n">
-        <v>18</v>
-      </c>
       <c r="S49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T49" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U49" t="n">
         <v>13</v>
       </c>
       <c r="V49" t="n">
+        <v>11</v>
+      </c>
+      <c r="W49" t="n">
+        <v>11</v>
+      </c>
+      <c r="X49" t="n">
         <v>12</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Y49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z49" t="n">
         <v>15</v>
       </c>
-      <c r="X49" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>17</v>
-      </c>
       <c r="AA49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB49" t="n">
         <v>13</v>
       </c>
       <c r="AC49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE49" t="n">
         <v>15</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AF49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI49" t="n">
         <v>17</v>
       </c>
-      <c r="AE49" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF49" t="n">
+      <c r="AJ49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU49" t="n">
         <v>16</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AV49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA49" t="n">
         <v>17</v>
       </c>
-      <c r="AH49" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ49" t="n">
+      <c r="BB49" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC49" t="n">
         <v>25</v>
       </c>
-      <c r="AK49" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>31</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP49" t="n">
+      <c r="BD49" t="n">
         <v>14</v>
       </c>
-      <c r="AQ49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>47</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW49" t="n">
+      <c r="BE49" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF49" t="n">
         <v>20</v>
       </c>
-      <c r="AX49" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY49" t="n">
+      <c r="BG49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK49" t="n">
         <v>17</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>29</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>15</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>17</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>24</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>24</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>14</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>21</v>
       </c>
       <c r="BL49" t="n">
         <v>16</v>
@@ -10458,7 +10458,7 @@
         <v>10</v>
       </c>
       <c r="BN49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
